--- a/data/ses_holt_hw.xlsx
+++ b/data/ses_holt_hw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\MUSE_JCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F784C3-A17F-4E52-9390-28C263F6E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6ACED4-6F9B-46A5-8B24-F03595DDFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-885" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
   </bookViews>
   <sheets>
     <sheet name="SES" sheetId="3" r:id="rId1"/>
@@ -18,16 +18,22 @@
     <sheet name="Holt_winter" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Holt!$I$1:$I$2</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Holt_winter!$I$1:$I$3,Holt_winter!$F$14:$F$17,Holt_winter!$D$17:$E$17</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">SES!$H$1,SES!$D$8</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Holt_winter!$I$1</definedName>
@@ -38,26 +44,37 @@
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Holt_winter!$I$2</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Holt_winter!$I$3</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">Holt_winter!$I$3</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Holt!$G$4</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Holt_winter!$G$6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">SES!$F$2</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
@@ -76,24 +93,34 @@
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -116,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Observation</t>
   </si>
@@ -234,16 +261,23 @@
       <t>t</t>
     </r>
   </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -473,7 +507,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,9 +611,6 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,6 +685,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -995,16 +1035,16 @@
                   <c:v>56688.250758078517</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56688.250758078517</c:v>
+                  <c:v>17006.475227423558</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56688.250758078517</c:v>
+                  <c:v>5101.9425682270685</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56688.250758078517</c:v>
+                  <c:v>1530.5827704681208</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56688.250758078517</c:v>
+                  <c:v>459.17483114043631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,6 +1320,102 @@
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>21.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.745720955187394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.23057877616214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.246992389649765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.020993373837047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.837065011987224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.148738254864654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.176891919412043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.809001565540783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.743810181436601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.626222119352377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.593520200614172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.481628586301639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.120149808510128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.395873852855679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.802259924663005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.539923216502423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.00561224897767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.857101232010407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.580923191240771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.148383307259408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.301222685008675</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.680971536133924</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.875906499888046</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.609794963859684</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.115235862122901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.069263494967387</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.646768539851294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.795518809894617</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.944269079937953</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.09301934998129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83.241769620024613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4268,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CC3305-0F10-4BFA-9234-5FFB9C915C1C}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,10 +4419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4464,9 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4425,7 +4563,7 @@
         <v>55691.635000000002</v>
       </c>
       <c r="D10" s="20">
-        <f t="shared" ref="D10:D35" si="0">$H$1*C9 +(1-$H$1)*D9</f>
+        <f t="shared" ref="D10:D39" si="0">$H$1*C9 +(1-$H$1)*D9</f>
         <v>42175.465196666672</v>
       </c>
       <c r="E10" s="21">
@@ -4517,7 +4655,7 @@
         <v>49633.199000000001</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="0"/>
+        <f>$H$1*C13 +(1-$H$1)*D13</f>
         <v>66694.996457592992</v>
       </c>
       <c r="E14" s="21">
@@ -4977,7 +5115,7 @@
         <v>60398.733</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" si="0"/>
+        <f>$H$1*C33 +(1-$H$1)*D33</f>
         <v>48030.458860261744</v>
       </c>
       <c r="E34" s="21">
@@ -5016,8 +5154,8 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="20">
-        <f>$H$1*C34 +(1-$H$1)*D34</f>
-        <v>56688.250758078517</v>
+        <f t="shared" si="0"/>
+        <v>17006.475227423558</v>
       </c>
       <c r="E36" s="21">
         <v>2</v>
@@ -5034,8 +5172,8 @@
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20">
-        <f>$H$1*C34 +(1-$H$1)*D34</f>
-        <v>56688.250758078517</v>
+        <f t="shared" si="0"/>
+        <v>5101.9425682270685</v>
       </c>
       <c r="E37" s="21">
         <v>3</v>
@@ -5052,8 +5190,8 @@
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20">
-        <f>$H$1*C34 +(1-$H$1)*D34</f>
-        <v>56688.250758078517</v>
+        <f t="shared" si="0"/>
+        <v>1530.5827704681208</v>
       </c>
       <c r="E38" s="21">
         <v>4</v>
@@ -5070,8 +5208,8 @@
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="20">
-        <f>$H$1*C34 +(1-$H$1)*D34</f>
-        <v>56688.250758078517</v>
+        <f t="shared" si="0"/>
+        <v>459.17483114043631</v>
       </c>
       <c r="E39" s="21">
         <v>5</v>
@@ -5091,10 +5229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C92A2A-80C6-4F2B-94A2-DE09EF091EAF}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,82 +5246,88 @@
     <col min="9" max="9" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F1" s="57" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="58" t="s">
+        <v>0.80784866082320173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.27067718171280708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="24"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <f>SUMPRODUCT(F11:F37,F11:F37)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(H11:H39,H11:H39)</f>
+        <v>170.6599969991733</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4">
-        <f>G4/C37</f>
-        <v>0</v>
+      <c r="G5" s="64">
+        <f>G4/B39</f>
+        <v>6.320740629599011</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="3">
         <f>SQRT(G5)</f>
-        <v>0</v>
+        <v>2.5141083169980982</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <f>AVERAGE(I13:I39)</f>
+        <v>1.6923140273157413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <f>AVERAGE(J13:J39)</f>
+        <v>4.4919855359310146E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -5210,7 +5354,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -5235,7 +5379,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>1989</v>
       </c>
@@ -5243,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <f>C13</f>
         <v>17.55</v>
       </c>
@@ -5254,8 +5398,14 @@
       <c r="F12" s="29"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1990</v>
       </c>
@@ -5265,13 +5415,35 @@
       <c r="C13" s="30">
         <v>17.55</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="31">
+        <f>$I$1*C13+(1-$I$1)*(D12+E12)</f>
+        <v>18.378172271852002</v>
+      </c>
+      <c r="E13" s="32">
+        <f>$I$2*(D13-D12)+(1-$I$2)*E12</f>
+        <v>3.3675486833353929</v>
+      </c>
+      <c r="F13" s="33">
+        <f>D12+(G13*E12)</f>
+        <v>21.86</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <f>C13-F13</f>
+        <v>-4.3099999999999987</v>
+      </c>
+      <c r="I13" s="7">
+        <f>ABS(H13)</f>
+        <v>4.3099999999999987</v>
+      </c>
+      <c r="J13">
+        <f>I13/C13</f>
+        <v>0.24558404558404551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>1991</v>
       </c>
@@ -5281,13 +5453,35 @@
       <c r="C14" s="34">
         <v>21.86</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="31">
+        <f t="shared" ref="D14:D39" si="0">$I$1*C14+(1-$I$1)*(D13+E13)</f>
+        <v>21.838041128499412</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" ref="E14:E39" si="1">$I$2*(D14-D13)+(1-$I$2)*E13</f>
+        <v>3.3925376476627278</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" ref="F14:F40" si="2">D13+(G14*E13)</f>
+        <v>21.745720955187394</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:H44" si="3">C14-F14</f>
+        <v>0.11427904481260498</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I44" si="4">ABS(H14)</f>
+        <v>0.11427904481260498</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J44" si="5">I14/C14</f>
+        <v>5.2277696620587821E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1992</v>
       </c>
@@ -5297,13 +5491,35 @@
       <c r="C15" s="30">
         <v>23.89</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="31">
+        <f t="shared" si="0"/>
+        <v>24.147594007111547</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0993983825382179</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="2"/>
+        <v>25.23057877616214</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.3405787761621397</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3405787761621397</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>5.6114641111851805E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>1993</v>
       </c>
@@ -5313,13 +5529,35 @@
       <c r="C16" s="34">
         <v>26.93</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="31">
+        <f t="shared" si="0"/>
+        <v>26.990910512180054</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0300828616569921</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="2"/>
+        <v>27.246992389649765</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.31699238964976573</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>0.31699238964976573</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>1.1770976221677153E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1994</v>
       </c>
@@ -5329,13 +5567,35 @@
       <c r="C17" s="30">
         <v>26.89</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="31">
+        <f t="shared" si="0"/>
+        <v>27.491624569736469</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="1"/>
+        <v>2.3454404422507547</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="2"/>
+        <v>30.020993373837047</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.1309933738370468</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>3.1309933738370468</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.11643709088274626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>1995</v>
       </c>
@@ -5345,13 +5605,35 @@
       <c r="C18" s="34">
         <v>28.83</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="31">
+        <f t="shared" si="0"/>
+        <v>29.023508890691442</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="1"/>
+        <v>2.1252293641732098</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="2"/>
+        <v>29.837065011987224</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.0070650119872262</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0070650119872262</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>3.4931148525398067E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1996</v>
       </c>
@@ -5361,13 +5643,35 @@
       <c r="C19" s="30">
         <v>30.08</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="31">
+        <f t="shared" si="0"/>
+        <v>30.285359486901719</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="1"/>
+        <v>1.8915324325103273</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="2"/>
+        <v>31.148738254864654</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.0687382548646553</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0687382548646553</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>3.5529862196298383E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>1997</v>
       </c>
@@ -5377,13 +5681,35 @@
       <c r="C20" s="34">
         <v>30.95</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="31">
+        <f t="shared" si="0"/>
+        <v>31.185748925340214</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="1"/>
+        <v>1.6232526402005703</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="2"/>
+        <v>32.176891919412043</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.2268919194120436</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2268919194120436</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>3.9641095942230808E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1998</v>
       </c>
@@ -5393,13 +5719,35 @@
       <c r="C21" s="30">
         <v>30.19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="31">
+        <f t="shared" si="0"/>
+        <v>30.693244658124794</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="1"/>
+        <v>1.0505655233118054</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="2"/>
+        <v>32.809001565540783</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.6190015655407812</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6190015655407812</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>8.6750631518409449E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>1999</v>
       </c>
@@ -5409,13 +5757,35 @@
       <c r="C22" s="34">
         <v>31.58</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="31">
+        <f t="shared" si="0"/>
+        <v>31.611476345733838</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="1"/>
+        <v>1.0147457736185364</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="2"/>
+        <v>31.743810181436601</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.16381018143660242</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.16381018143660242</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>5.1871495071755041E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2000</v>
       </c>
@@ -5425,13 +5795,35 @@
       <c r="C23" s="30">
         <v>32.58</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="31">
+        <f t="shared" si="0"/>
+        <v>32.588881642133146</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="1"/>
+        <v>1.0046385584810242</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="2"/>
+        <v>32.626222119352377</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="3"/>
+        <v>-4.6222119352378854E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="4"/>
+        <v>4.6222119352378854E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>1.4187268063959133E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2001</v>
       </c>
@@ -5441,13 +5833,35 @@
       <c r="C24" s="34">
         <v>33.479999999999997</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="31">
+        <f t="shared" si="0"/>
+        <v>33.501813058571628</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="1"/>
+        <v>0.9798155277300129</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="2"/>
+        <v>33.593520200614172</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.11352020061417534</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11352020061417534</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>3.3906869956444249E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>2002</v>
       </c>
@@ -5457,13 +5871,35 @@
       <c r="C25" s="30">
         <v>39.020000000000003</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="31">
+        <f t="shared" si="0"/>
+        <v>38.147945855176161</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="1"/>
+        <v>1.9722039533339641</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="2"/>
+        <v>34.481628586301639</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="3"/>
+        <v>4.5383714136983642</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="4"/>
+        <v>4.5383714136983642</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.11630885222189553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2003</v>
       </c>
@@ -5473,13 +5909,35 @@
       <c r="C26" s="34">
         <v>41.39</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="31">
+        <f t="shared" si="0"/>
+        <v>41.145996585151309</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2498772677043672</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="2"/>
+        <v>40.120149808510128</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2698501914898728</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2698501914898728</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>3.0680120596517823E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2004</v>
       </c>
@@ -5489,13 +5947,35 @@
       <c r="C27" s="30">
         <v>41.6</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="31">
+        <f t="shared" si="0"/>
+        <v>41.945079565818816</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="1"/>
+        <v>1.8571803588441886</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="2"/>
+        <v>43.395873852855679</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.7958738528556779</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="4"/>
+        <v>1.7958738528556779</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>4.3170044539799945E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2005</v>
       </c>
@@ -5505,13 +5985,35 @@
       <c r="C28" s="34">
         <v>44.66</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="31">
+        <f t="shared" si="0"/>
+        <v>44.495184095858384</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="1"/>
+        <v>2.0447391206440368</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="2"/>
+        <v>43.802259924663005</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.85774007533699148</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.85774007533699148</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>1.9206002582556909E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>2006</v>
       </c>
@@ -5521,13 +6023,35 @@
       <c r="C29" s="30">
         <v>46.95</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="31">
+        <f t="shared" si="0"/>
+        <v>46.871203196885631</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="1"/>
+        <v>2.134409052092038</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="2"/>
+        <v>46.539923216502423</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="3"/>
+        <v>0.41007678349757981</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="4"/>
+        <v>0.41007678349757981</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>8.7343297869559057E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2007</v>
       </c>
@@ -5537,13 +6061,35 @@
       <c r="C30" s="34">
         <v>48.73</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="31">
+        <f t="shared" si="0"/>
+        <v>48.782959262734586</v>
+      </c>
+      <c r="E30" s="32">
+        <f t="shared" si="1"/>
+        <v>2.0741419692758196</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="2"/>
+        <v>49.00561224897767</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.27561224897767289</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.27561224897767289</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>5.6559049656817757E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>2008</v>
       </c>
@@ -5553,13 +6099,35 @@
       <c r="C31" s="30">
         <v>51.49</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="31">
+        <f t="shared" si="0"/>
+        <v>51.368387654167456</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2125355370733146</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="2"/>
+        <v>50.857101232010407</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="3"/>
+        <v>0.63289876798959455</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="4"/>
+        <v>0.63289876798959455</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>1.2291683200419392E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2009</v>
       </c>
@@ -5569,13 +6137,35 @@
       <c r="C32" s="34">
         <v>50.03</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="31">
+        <f t="shared" si="0"/>
+        <v>50.712314646510862</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="1"/>
+        <v>1.4360686607485458</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="2"/>
+        <v>53.580923191240771</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.5509231912407699</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="4"/>
+        <v>3.5509231912407699</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>7.0975878297836692E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>2010</v>
       </c>
@@ -5585,13 +6175,35 @@
       <c r="C33" s="30">
         <v>60.64</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="31">
+        <f t="shared" si="0"/>
+        <v>59.008324480713839</v>
+      </c>
+      <c r="E33" s="32">
+        <f t="shared" si="1"/>
+        <v>3.292898204294838</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="2"/>
+        <v>52.148383307259408</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="3"/>
+        <v>8.4916166927405925</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4916166927405925</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.14003325680640819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2011</v>
       </c>
@@ -5601,13 +6213,35 @@
       <c r="C34" s="34">
         <v>63.36</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="31">
+        <f t="shared" si="0"/>
+        <v>63.156554521034401</v>
+      </c>
+      <c r="E34" s="32">
+        <f t="shared" si="1"/>
+        <v>3.5244170150995222</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="2"/>
+        <v>62.301222685008675</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0587773149913247</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0587773149913247</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>1.6710500552262069E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2012</v>
       </c>
@@ -5617,13 +6251,35 @@
       <c r="C35" s="30">
         <v>66.36</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="31">
+        <f t="shared" si="0"/>
+        <v>66.42167511050576</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="shared" si="1"/>
+        <v>3.454231389382286</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="2"/>
+        <v>66.680971536133924</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.32097153613392493</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.32097153613392493</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>4.8368224251646311E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2013</v>
       </c>
@@ -5633,13 +6289,35 @@
       <c r="C36" s="34">
         <v>68.2</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="31">
+        <f t="shared" si="0"/>
+        <v>68.522027678288595</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0877672855710903</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="2"/>
+        <v>69.875906499888046</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.6759064998880433</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6759064998880433</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>2.4573409089267497E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>2014</v>
       </c>
@@ -5649,13 +6327,35 @@
       <c r="C37" s="30">
         <v>68.12</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="31">
+        <f t="shared" si="0"/>
+        <v>68.790568775758089</v>
+      </c>
+      <c r="E37" s="32">
+        <f t="shared" si="1"/>
+        <v>2.3246670863648102</v>
+      </c>
+      <c r="F37" s="33">
+        <f t="shared" si="2"/>
+        <v>71.609794963859684</v>
+      </c>
+      <c r="G37" s="21">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="3"/>
+        <v>-3.4897949638596799</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4897949638596799</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>5.1230108101287135E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>2015</v>
       </c>
@@ -5665,13 +6365,35 @@
       <c r="C38" s="34">
         <v>69.78</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="31">
+        <f t="shared" si="0"/>
+        <v>70.036567359023806</v>
+      </c>
+      <c r="E38" s="32">
+        <f t="shared" si="1"/>
+        <v>2.0326961359435756</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="2"/>
+        <v>71.115235862122901</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.3352358621229001</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3352358621229001</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>1.9134936401875899E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>2016</v>
       </c>
@@ -5681,13 +6403,35 @@
       <c r="C39" s="30">
         <v>72.599999999999994</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="31">
+        <f t="shared" si="0"/>
+        <v>72.498018269807957</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" si="1"/>
+        <v>2.1487502700433319</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" si="2"/>
+        <v>72.069263494967387</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="3"/>
+        <v>0.53073650503260694</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="4"/>
+        <v>0.53073650503260694</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>7.3104201795124932E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>2017</v>
       </c>
@@ -5695,13 +6439,22 @@
         <v>28</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="15"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33">
+        <f>$D$39+(G40*$E$39)</f>
+        <v>74.646768539851294</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
       <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>2018</v>
       </c>
@@ -5711,11 +6464,20 @@
       <c r="C41" s="22"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="33">
+        <f>$D$39+(G41*$E$39)</f>
+        <v>76.795518809894617</v>
+      </c>
+      <c r="G41" s="62">
+        <v>2</v>
+      </c>
       <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>2019</v>
       </c>
@@ -5725,11 +6487,20 @@
       <c r="C42" s="22"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="33">
+        <f>$D$39+(G42*$E$39)</f>
+        <v>78.944269079937953</v>
+      </c>
+      <c r="G42" s="62">
+        <v>3</v>
+      </c>
       <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>2020</v>
       </c>
@@ -5739,11 +6510,20 @@
       <c r="C43" s="22"/>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="33">
+        <f>$D$39+(G43*$E$39)</f>
+        <v>81.09301934998129</v>
+      </c>
+      <c r="G43" s="62">
+        <v>4</v>
+      </c>
       <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>2021</v>
       </c>
@@ -5753,9 +6533,18 @@
       <c r="C44" s="22"/>
       <c r="D44" s="35"/>
       <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="21"/>
+      <c r="F44" s="33">
+        <f t="shared" ref="F41:F44" si="6">$D$39+(G44*$E$39)</f>
+        <v>83.241769620024613</v>
+      </c>
+      <c r="G44" s="63">
+        <v>5</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="J44" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5771,8 +6560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7883B9A0-6EC6-4601-BFF4-342B674DDDB4}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,38 +6580,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5837,10 +6626,10 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
@@ -5917,7 +6706,7 @@
       <c r="I12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -5954,7 +6743,7 @@
       <c r="I13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="21"/>
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
@@ -5968,14 +6757,14 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41">
         <v>0</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="40"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21"/>
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
@@ -5989,14 +6778,14 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42">
+      <c r="E15" s="40"/>
+      <c r="F15" s="41">
         <v>17.532009494090538</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="21"/>
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
@@ -6010,14 +6799,14 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42">
+      <c r="E16" s="40"/>
+      <c r="F16" s="41">
         <v>15.820255942810377</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="21"/>
       <c r="L16" s="15"/>
       <c r="M16" s="21"/>
@@ -6036,10 +6825,10 @@
       <c r="E17" s="28">
         <v>2.2557485084678475</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>59.912706402693409</v>
       </c>
-      <c r="G17" s="43"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="15"/>
       <c r="I17" s="16"/>
       <c r="J17" s="21"/>
@@ -6185,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" ref="K20:K63" si="8">$G$4*(J20+1)</f>
+        <f t="shared" ref="K20:K62" si="8">$G$4*(J20+1)</f>
         <v>4</v>
       </c>
       <c r="L20" s="21">
@@ -7425,10 +8214,10 @@
         <f t="shared" si="9"/>
         <v>1974</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>28</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="43">
         <v>228.21700000000001</v>
       </c>
       <c r="D45" s="31">
@@ -7476,10 +8265,10 @@
         <f t="shared" si="9"/>
         <v>1974</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>29</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="43">
         <v>124.387</v>
       </c>
       <c r="D46" s="31">
@@ -7527,10 +8316,10 @@
         <f t="shared" si="9"/>
         <v>1975</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>30</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="43">
         <v>138.79</v>
       </c>
       <c r="D47" s="31">
@@ -7578,10 +8367,10 @@
         <f t="shared" si="9"/>
         <v>1975</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>31</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="43">
         <v>145.12200000000001</v>
       </c>
       <c r="D48" s="31">
@@ -7629,10 +8418,10 @@
         <f t="shared" si="9"/>
         <v>1975</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>32</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="43">
         <v>233.429</v>
       </c>
       <c r="D49" s="31">
@@ -7680,7 +8469,7 @@
         <f t="shared" si="9"/>
         <v>1975</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="43">
         <v>33</v>
       </c>
       <c r="C50" s="21">
@@ -7731,7 +8520,7 @@
         <f t="shared" si="9"/>
         <v>1976</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <v>34</v>
       </c>
       <c r="C51" s="21">
@@ -7782,7 +8571,7 @@
         <f t="shared" si="9"/>
         <v>1976</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="43">
         <v>35</v>
       </c>
       <c r="C52" s="21">
@@ -7833,7 +8622,7 @@
         <f t="shared" si="9"/>
         <v>1976</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <v>36</v>
       </c>
       <c r="C53" s="21">
@@ -7884,21 +8673,21 @@
         <f t="shared" si="9"/>
         <v>1976</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="44">
         <v>37</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="45">
         <v>139.22200000000001</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="46">
         <f t="shared" si="0"/>
         <v>144.86623006518442</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="47">
         <f t="shared" si="1"/>
         <v>2.2557485084678475</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="47">
         <f t="shared" si="2"/>
         <v>-27.782988067742778</v>
       </c>
@@ -7906,7 +8695,7 @@
         <f t="shared" si="3"/>
         <v>161.36075800255838</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="45">
         <v>1</v>
       </c>
       <c r="I54" s="16">
@@ -7917,7 +8706,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="45">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
@@ -7935,41 +8724,41 @@
         <f t="shared" si="9"/>
         <v>1977</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="48">
         <v>38</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="49">
         <f>G54</f>
         <v>161.36075800255838</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53">
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52">
         <f>$D$54+H55*($E$54)+F51</f>
         <v>142.47899495718772</v>
       </c>
-      <c r="H55" s="49">
-        <v>1</v>
-      </c>
-      <c r="I55" s="54"/>
-      <c r="J55" s="49">
+      <c r="H55" s="48">
+        <v>1</v>
+      </c>
+      <c r="I55" s="53"/>
+      <c r="J55" s="48">
         <f>INT((H55-1)/$G$4)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="49">
+      <c r="K55" s="48">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L55" s="49">
+      <c r="L55" s="48">
         <f>$B$54+H55-K55</f>
         <v>34</v>
       </c>
-      <c r="M55" s="55">
+      <c r="M55" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N55" s="60" t="s">
+      <c r="N55" s="59" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7978,328 +8767,328 @@
         <f t="shared" si="9"/>
         <v>1977</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="48">
         <v>39</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="49">
         <f>G55</f>
         <v>142.47899495718772</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53">
+      <c r="D56" s="50"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52">
         <f>$D$54+H56*($E$54)+F52</f>
         <v>145.73319392553856</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="48">
         <v>2</v>
       </c>
-      <c r="I56" s="54"/>
-      <c r="J56" s="49">
+      <c r="I56" s="53"/>
+      <c r="J56" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K56" s="49">
+      <c r="K56" s="48">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L56" s="49">
+      <c r="L56" s="48">
         <f>$B$54+H56-K56</f>
         <v>35</v>
       </c>
-      <c r="M56" s="55">
+      <c r="M56" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N56" s="61"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <f t="shared" si="9"/>
         <v>1977</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="48">
         <v>40</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="49">
         <f>G56</f>
         <v>145.73319392553856</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53">
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52">
         <f>$D$54+H57*($E$54)+F53</f>
         <v>276.33990772148434</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="48">
         <v>3</v>
       </c>
-      <c r="I57" s="54"/>
-      <c r="J57" s="49">
+      <c r="I57" s="53"/>
+      <c r="J57" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K57" s="49">
+      <c r="K57" s="48">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L57" s="49">
+      <c r="L57" s="48">
         <f t="shared" ref="L57:L58" si="10">$B$54+H57-K57</f>
         <v>36</v>
       </c>
-      <c r="M57" s="55">
+      <c r="M57" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N57" s="61"/>
+      <c r="N57" s="60"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <f t="shared" si="9"/>
         <v>1977</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="48">
         <v>41</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="49">
         <f t="shared" ref="C58:C59" si="11">G57</f>
         <v>276.33990772148434</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53">
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52">
         <f>$D$54+H58*($E$54)+F54</f>
         <v>126.10623603131303</v>
       </c>
-      <c r="H58" s="49">
-        <v>4</v>
-      </c>
-      <c r="I58" s="54"/>
-      <c r="J58" s="49">
+      <c r="H58" s="48">
+        <v>4</v>
+      </c>
+      <c r="I58" s="53"/>
+      <c r="J58" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="49">
+      <c r="K58" s="48">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L58" s="48">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="M58" s="55">
+      <c r="M58" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N58" s="61"/>
+      <c r="N58" s="60"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <f t="shared" si="9"/>
         <v>1978</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="48">
         <v>42</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="49">
         <f t="shared" si="11"/>
         <v>126.10623603131303</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53">
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52">
         <f>$D$54+H59*($E$54)+F51</f>
         <v>151.50198899105911</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="48">
         <v>5</v>
       </c>
-      <c r="I59" s="54"/>
-      <c r="J59" s="49">
+      <c r="I59" s="53"/>
+      <c r="J59" s="48">
         <f>INT((H59-1)/$G$4)</f>
         <v>1</v>
       </c>
-      <c r="K59" s="49">
+      <c r="K59" s="48">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <f>$B$54+H59-K59</f>
         <v>34</v>
       </c>
-      <c r="M59" s="55">
+      <c r="M59" s="54">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="N59" s="61"/>
+      <c r="N59" s="60"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <f t="shared" si="9"/>
         <v>1978</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="48">
         <v>43</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="49">
         <f>G59</f>
         <v>151.50198899105911</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53">
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52">
         <f t="shared" ref="G60:G62" si="12">$D$54+H60*($E$54)+F52</f>
         <v>154.75618795940994</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="48">
         <v>6</v>
       </c>
-      <c r="I60" s="54"/>
-      <c r="J60" s="49">
+      <c r="I60" s="53"/>
+      <c r="J60" s="48">
         <f>INT((H60-1)/$G$4)</f>
         <v>1</v>
       </c>
-      <c r="K60" s="49">
+      <c r="K60" s="48">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="48">
         <f>$B$54+H60-K60</f>
         <v>35</v>
       </c>
-      <c r="M60" s="55">
+      <c r="M60" s="54">
         <f t="shared" ref="M60:M63" si="13">B60-L60</f>
         <v>8</v>
       </c>
-      <c r="N60" s="61"/>
+      <c r="N60" s="60"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <f t="shared" si="9"/>
         <v>1978</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="48">
         <v>44</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="49">
         <f>G60</f>
         <v>154.75618795940994</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53">
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52">
         <f t="shared" si="12"/>
         <v>285.36290175535572</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="48">
         <v>7</v>
       </c>
-      <c r="I61" s="54"/>
-      <c r="J61" s="49">
+      <c r="I61" s="53"/>
+      <c r="J61" s="48">
         <f>INT((H61-1)/$G$4)</f>
         <v>1</v>
       </c>
-      <c r="K61" s="49">
+      <c r="K61" s="48">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L61" s="49">
+      <c r="L61" s="48">
         <f>$B$54+H61-K61</f>
         <v>36</v>
       </c>
-      <c r="M61" s="55">
+      <c r="M61" s="54">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="N61" s="61"/>
+      <c r="N61" s="60"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <f t="shared" si="9"/>
         <v>1978</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>45</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="49">
         <f>G61</f>
         <v>285.36290175535572</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53">
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52">
         <f t="shared" si="12"/>
         <v>135.1292300651844</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="48">
         <v>8</v>
       </c>
-      <c r="I62" s="54"/>
-      <c r="J62" s="49">
+      <c r="I62" s="53"/>
+      <c r="J62" s="48">
         <f>INT((H62-1)/$G$4)</f>
         <v>1</v>
       </c>
-      <c r="K62" s="49">
+      <c r="K62" s="48">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L62" s="49">
+      <c r="L62" s="48">
         <f>$B$54+H62-K62</f>
         <v>37</v>
       </c>
-      <c r="M62" s="55">
+      <c r="M62" s="54">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="N62" s="61"/>
+      <c r="N62" s="60"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <f t="shared" si="9"/>
         <v>1979</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="48">
         <v>46</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="49">
         <f>G62</f>
         <v>135.1292300651844</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53">
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52">
         <f>$D$54+H63*($E$54)+F51</f>
         <v>160.52498302493049</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="48">
         <v>9</v>
       </c>
-      <c r="I63" s="54"/>
-      <c r="J63" s="49">
+      <c r="I63" s="53"/>
+      <c r="J63" s="48">
         <f>INT((H63-1)/$G$4)</f>
         <v>2</v>
       </c>
-      <c r="K63" s="49">
+      <c r="K63" s="48">
         <f>$G$4*(J63+1)</f>
         <v>12</v>
       </c>
-      <c r="L63" s="49">
+      <c r="L63" s="48">
         <f>$B$54+H63-K63</f>
         <v>34</v>
       </c>
-      <c r="M63" s="55">
+      <c r="M63" s="54">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="N63" s="62"/>
+      <c r="N63" s="61"/>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="7">

--- a/data/ses_holt_hw.xlsx
+++ b/data/ses_holt_hw.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\MUSE_JCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6ACED4-6F9B-46A5-8B24-F03595DDFD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAF1BB-A9E0-4CFD-8859-ABBEB5C9F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
   </bookViews>
   <sheets>
     <sheet name="SES" sheetId="3" r:id="rId1"/>
     <sheet name="Holt" sheetId="2" r:id="rId2"/>
     <sheet name="Holt_winter" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Holt!$I$1:$I$2</definedName>
@@ -142,8 +143,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Observation</t>
   </si>
@@ -267,17 +290,21 @@
   <si>
     <t>PAE</t>
   </si>
+  <si>
+    <t>Parámetro de suavizamiento de estacionalidad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -507,7 +534,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,11 +689,17 @@
     <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,14 +719,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1836,139 +1869,139 @@
                   <c:v>68.288328309828728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.279758002558395</c:v>
+                  <c:v>86.06419860537892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.98999495718769</c:v>
+                  <c:v>77.500986065397029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.14819896835087</c:v>
+                  <c:v>122.29143202763677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.368713795945723</c:v>
+                  <c:v>69.034683460801574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.702328309828715</c:v>
+                  <c:v>87.245157348184762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.13075800255838</c:v>
+                  <c:v>93.090864997297274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.94799495718769</c:v>
+                  <c:v>144.03652693737052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.825198968350861</c:v>
+                  <c:v>88.240386818247146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.377713795945724</c:v>
+                  <c:v>98.57473935741541</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.20632830982872</c:v>
+                  <c:v>106.85508948454768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>158.47575800255836</c:v>
+                  <c:v>156.94380465153614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.3819949571877</c:v>
+                  <c:v>90.577147956620095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.023198968350854</c:v>
+                  <c:v>97.120919489717195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.24971379594572</c:v>
+                  <c:v>100.91573770292746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164.56132830982875</c:v>
+                  <c:v>162.49996702536504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.531758002558362</c:v>
+                  <c:v>86.787218691437189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103.14299495718771</c:v>
+                  <c:v>102.11436667917995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103.04919896835086</c:v>
+                  <c:v>101.82599973860073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>167.97271379594571</c:v>
+                  <c:v>166.48309929148309</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.70532830982873</c:v>
+                  <c:v>97.124064803578776</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>103.30975800255837</c:v>
+                  <c:v>104.91632774730444</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113.4529949571877</c:v>
+                  <c:v>113.19228819877954</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194.28019896835087</c:v>
+                  <c:v>193.8181077280463</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110.06271379594573</c:v>
+                  <c:v>113.80028176834797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>119.66732830982872</c:v>
+                  <c:v>118.3636790436847</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>134.37875800255838</c:v>
+                  <c:v>136.61943594044081</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>212.38199495718771</c:v>
+                  <c:v>213.8467202191988</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>132.86019896835089</c:v>
+                  <c:v>136.97894760340202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>155.83671379594574</c:v>
+                  <c:v>159.28060389227372</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>132.19132830982872</c:v>
+                  <c:v>133.26838894305283</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>240.48575800255841</c:v>
+                  <c:v>234.08551198617806</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>113.76399495718771</c:v>
+                  <c:v>116.6231792734652</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>153.13019896835087</c:v>
+                  <c:v>154.97206628479864</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>173.3797137959458</c:v>
+                  <c:v>173.60504650493624</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>225.50232830982873</c:v>
+                  <c:v>231.19568776825352</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>161.36075800255838</c:v>
+                  <c:v>150.38356705398539</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>142.47899495718772</c:v>
+                  <c:v>149.75195659600433</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>145.73319392553856</c:v>
+                  <c:v>154.88106924317472</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>276.33990772148434</c:v>
+                  <c:v>275.90379315667076</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>126.10623603131303</c:v>
+                  <c:v>140.53741777114459</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>151.50198899105911</c:v>
+                  <c:v>157.76431459954014</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>154.75618795940994</c:v>
+                  <c:v>162.89342724671053</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>285.36290175535572</c:v>
+                  <c:v>283.91615116020654</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>135.1292300651844</c:v>
+                  <c:v>148.54977577468043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>160.52498302493049</c:v>
+                  <c:v>165.77667260307598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,13 +4099,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
@@ -4419,10 +4452,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C92A2A-80C6-4F2B-94A2-DE09EF091EAF}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -5247,10 +5280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5259,10 +5292,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
@@ -5291,7 +5324,7 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="57">
         <f>G4/B39</f>
         <v>6.320740629599011</v>
       </c>
@@ -5387,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <f>C13</f>
         <v>17.55</v>
       </c>
@@ -5462,18 +5495,18 @@
         <v>3.3925376476627278</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" ref="F14:F40" si="2">D13+(G14*E13)</f>
+        <f t="shared" ref="F14:F39" si="2">D13+(G14*E13)</f>
         <v>21.745720955187394</v>
       </c>
       <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" ref="H14:H44" si="3">C14-F14</f>
+        <f t="shared" ref="H14:H39" si="3">C14-F14</f>
         <v>0.11427904481260498</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" ref="I14:I44" si="4">ABS(H14)</f>
+        <f t="shared" ref="I14:I39" si="4">ABS(H14)</f>
         <v>0.11427904481260498</v>
       </c>
       <c r="J14">
@@ -6468,7 +6501,7 @@
         <f>$D$39+(G41*$E$39)</f>
         <v>76.795518809894617</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="55">
         <v>2</v>
       </c>
       <c r="H41" s="16"/>
@@ -6491,7 +6524,7 @@
         <f>$D$39+(G42*$E$39)</f>
         <v>78.944269079937953</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="55">
         <v>3</v>
       </c>
       <c r="H42" s="16"/>
@@ -6514,7 +6547,7 @@
         <f>$D$39+(G43*$E$39)</f>
         <v>81.09301934998129</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="55">
         <v>4</v>
       </c>
       <c r="H43" s="16"/>
@@ -6534,10 +6567,10 @@
       <c r="D44" s="35"/>
       <c r="E44" s="36"/>
       <c r="F44" s="33">
-        <f t="shared" ref="F41:F44" si="6">$D$39+(G44*$E$39)</f>
+        <f t="shared" ref="F44" si="6">$D$39+(G44*$E$39)</f>
         <v>83.241769620024613</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="56">
         <v>5</v>
       </c>
       <c r="H44" s="16"/>
@@ -6558,10 +6591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7883B9A0-6EC6-4601-BFF4-342B674DDDB4}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6569,53 +6602,52 @@
     <col min="1" max="2" width="11.42578125" style="7"/>
     <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="7" customWidth="1"/>
     <col min="6" max="7" width="31.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="7"/>
     <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="56" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="57" t="s">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="58"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="60"/>
       <c r="H3" s="37" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6625,60 +6657,60 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="57" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="4">
         <f>SUMPRODUCT(I14:I43,I14:I43)</f>
-        <v>455.23446220718449</v>
+        <v>615.39832703872639</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4">
         <f>G6/C42</f>
-        <v>4.3656267653191447</v>
+        <v>5.901572993457104</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="3">
         <f>SQRT(G7)</f>
-        <v>2.0894082332849999</v>
+        <v>2.4293153342983498</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -6715,9 +6747,8 @@
       <c r="L12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -6746,9 +6777,8 @@
       <c r="J13" s="39"/>
       <c r="K13" s="21"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1966</v>
       </c>
@@ -6767,9 +6797,8 @@
       <c r="J14" s="39"/>
       <c r="K14" s="21"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1967</v>
       </c>
@@ -6788,9 +6817,8 @@
       <c r="J15" s="39"/>
       <c r="K15" s="21"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1967</v>
       </c>
@@ -6809,9 +6837,8 @@
       <c r="J16" s="39"/>
       <c r="K16" s="21"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1967</v>
       </c>
@@ -6822,7 +6849,7 @@
       <c r="D17" s="27">
         <v>66.032579801360882</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="64">
         <v>2.2557485084678475</v>
       </c>
       <c r="F17" s="41">
@@ -6834,9 +6861,8 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>1967</v>
       </c>
@@ -6848,15 +6874,15 @@
       </c>
       <c r="D18" s="31">
         <f>$I$1*(C18-F14) +(1-$I$1)*(D17+E17)</f>
-        <v>66.492000000000004</v>
-      </c>
-      <c r="E18" s="32">
+        <v>66.851265661965741</v>
+      </c>
+      <c r="E18" s="65">
         <f>$I$2*(D18-D17)+(1-$I$2)*E17</f>
-        <v>2.2557485084678475</v>
+        <v>1.6809234493226519</v>
       </c>
       <c r="F18" s="32">
         <f>$I$3*(C18-D17-E17) + (1-$I$3)*F14</f>
-        <v>-1.7963283098287248</v>
+        <v>-1.43706264786298</v>
       </c>
       <c r="G18" s="33">
         <f>D17+H18*(E17)+F14</f>
@@ -6866,8 +6892,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="16">
-        <f>G18-C18</f>
-        <v>1.7963283098287235</v>
+        <f>C18-G18</f>
+        <v>-1.7963283098287235</v>
       </c>
       <c r="J18" s="21">
         <f>INT((H18-1)/$G$4)</f>
@@ -6881,12 +6907,8 @@
         <f>B17+H18-K18</f>
         <v>-3</v>
       </c>
-      <c r="M18" s="21">
-        <f>B18-L18</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>1968</v>
       </c>
@@ -6898,26 +6920,26 @@
       </c>
       <c r="D19" s="31">
         <f t="shared" ref="D19:D54" si="0">$I$1*(C19-F15) +(1-$I$1)*(D18+E18)</f>
-        <v>60.91399050590946</v>
-      </c>
-      <c r="E19" s="32">
+        <v>62.437630226985249</v>
+      </c>
+      <c r="E19" s="65">
         <f t="shared" ref="E19:E54" si="1">$I$2*(D19-D18)+(1-$I$2)*E18</f>
-        <v>2.2557485084678475</v>
+        <v>-0.75690010439860567</v>
       </c>
       <c r="F19" s="32">
         <f t="shared" ref="F19:F54" si="2">$I$3*(C19-D18-E18) + (1-$I$3)*F15</f>
-        <v>9.6982514915321456</v>
+        <v>11.437450609787392</v>
       </c>
       <c r="G19" s="33">
         <f t="shared" ref="G19:G54" si="3">D18+H19*(E18)+F15</f>
-        <v>86.279758002558395</v>
+        <v>86.06419860537892</v>
       </c>
       <c r="H19" s="21">
         <v>1</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" ref="I19:I54" si="4">G19-C19</f>
-        <v>7.8337580025583975</v>
+        <f t="shared" ref="I19:I54" si="4">C19-G19</f>
+        <v>-7.6181986053789217</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" ref="J19:J58" si="5">INT((H19-1)/$G$4)</f>
@@ -6931,12 +6953,8 @@
         <f t="shared" ref="L19:L54" si="6">B18+H19-K19</f>
         <v>-2</v>
       </c>
-      <c r="M19" s="21">
-        <f t="shared" ref="M19:M59" si="7">B19-L19</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>1968</v>
       </c>
@@ -6948,45 +6966,41 @@
       </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
-        <v>62.97974405718962</v>
-      </c>
-      <c r="E20" s="32">
+        <v>62.719941270269025</v>
+      </c>
+      <c r="E20" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>-0.34121564532565279</v>
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>15.630260985622689</v>
+        <v>16.85946709049276</v>
       </c>
       <c r="G20" s="33">
         <f t="shared" si="3"/>
-        <v>78.98999495718769</v>
+        <v>77.500986065397029</v>
       </c>
       <c r="H20" s="21">
         <v>1</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="4"/>
-        <v>0.1899949571876931</v>
+        <v>1.2990139346029679</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" ref="K20:K62" si="8">$G$4*(J20+1)</f>
+        <f t="shared" ref="K20:K62" si="7">$G$4*(J20+1)</f>
         <v>4</v>
       </c>
       <c r="L20" s="21">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="M20" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>1968</v>
       </c>
@@ -6998,45 +7012,41 @@
       </c>
       <c r="D21" s="31">
         <f>$I$1*(C21-F17) +(1-$I$1)*(D20+E20)</f>
-        <v>69.909293597306601</v>
-      </c>
-      <c r="E21" s="32">
+        <v>68.403180002833963</v>
+      </c>
+      <c r="E21" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.0685661058305835</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>64.586507434342536</v>
+        <v>65.93716078058398</v>
       </c>
       <c r="G21" s="33">
         <f>D20+H21*(E20)+F17</f>
-        <v>125.14819896835087</v>
+        <v>122.29143202763677</v>
       </c>
       <c r="H21" s="21">
         <v>1</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="4"/>
-        <v>-4.6738010316491341</v>
+        <v>7.5305679723632295</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M21" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f>A18+1</f>
         <v>1968</v>
@@ -7049,47 +7059,43 @@
       </c>
       <c r="D22" s="31">
         <f t="shared" si="0"/>
-        <v>73.748328309828722</v>
-      </c>
-      <c r="E22" s="32">
+        <v>72.805599340023292</v>
+      </c>
+      <c r="E22" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>3.0021073983740818</v>
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>-0.21304210577444982</v>
+        <v>0.89679058349576524</v>
       </c>
       <c r="G22" s="33">
         <f t="shared" si="3"/>
-        <v>70.368713795945723</v>
+        <v>69.034683460801574</v>
       </c>
       <c r="H22" s="21">
         <v>1</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="4"/>
-        <v>-1.583286204054275</v>
+        <v>2.9173165391984242</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L22" s="21">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M22" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
-        <f t="shared" ref="A23:A63" si="9">A19+1</f>
+        <f t="shared" ref="A23:A63" si="8">A19+1</f>
         <v>1969</v>
       </c>
       <c r="B23" s="18">
@@ -7100,47 +7106,43 @@
       </c>
       <c r="D23" s="31">
         <f t="shared" si="0"/>
-        <v>75.24474850846785</v>
-      </c>
-      <c r="E23" s="32">
+        <v>73.965980859849566</v>
+      </c>
+      <c r="E23" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.2654170469549584</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>8.9389231817034283</v>
+        <v>9.5957247312395779</v>
       </c>
       <c r="G23" s="33">
         <f t="shared" si="3"/>
-        <v>85.702328309828715</v>
+        <v>87.245157348184762</v>
       </c>
       <c r="H23" s="21">
         <v>1</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="4"/>
-        <v>0.75932830982871735</v>
+        <v>-2.3021573481847639</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L23" s="21">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M23" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1969</v>
       </c>
       <c r="B24" s="11">
@@ -7151,47 +7153,43 @@
       </c>
       <c r="D24" s="31">
         <f t="shared" si="0"/>
-        <v>77.10573901437732</v>
-      </c>
-      <c r="E24" s="32">
+        <v>75.947505908966704</v>
+      </c>
+      <c r="E24" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.1518602478198305</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>15.235502983064306</v>
+        <v>16.575575092654937</v>
       </c>
       <c r="G24" s="33">
         <f t="shared" si="3"/>
-        <v>93.13075800255838</v>
+        <v>93.090864997297274</v>
       </c>
       <c r="H24" s="21">
         <v>1</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="4"/>
-        <v>0.39475800255837612</v>
+        <v>-0.35486499729726972</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M24" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1969</v>
       </c>
       <c r="B25" s="18">
@@ -7202,47 +7200,43 @@
       </c>
       <c r="D25" s="31">
         <f t="shared" si="0"/>
-        <v>85.782492565657464</v>
-      </c>
-      <c r="E25" s="32">
+        <v>83.165344606890116</v>
+      </c>
+      <c r="E25" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>4.1782516278612629</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>71.007512477154833</v>
+        <v>71.00313923068758</v>
       </c>
       <c r="G25" s="33">
         <f t="shared" si="3"/>
-        <v>143.94799495718769</v>
+        <v>144.03652693737052</v>
       </c>
       <c r="H25" s="21">
         <v>1</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="4"/>
-        <v>-6.4210050428123111</v>
+        <v>6.3324730626294752</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K25" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M25" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1969</v>
       </c>
       <c r="B26" s="11">
@@ -7253,47 +7247,43 @@
       </c>
       <c r="D26" s="31">
         <f t="shared" si="0"/>
-        <v>86.183042105774447</v>
-      </c>
-      <c r="E26" s="32">
+        <v>85.527286780153659</v>
+      </c>
+      <c r="E26" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>3.451727846022175</v>
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>-2.0682410741253121</v>
+        <v>-0.91951887110195119</v>
       </c>
       <c r="G26" s="33">
         <f t="shared" si="3"/>
-        <v>87.825198968350861</v>
+        <v>88.240386818247146</v>
       </c>
       <c r="H26" s="21">
         <v>1</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="4"/>
-        <v>1.8551989683508623</v>
+        <v>-2.2703868182471467</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K26" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M26" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1970</v>
       </c>
       <c r="B27" s="18">
@@ -7304,47 +7294,43 @@
       </c>
       <c r="D27" s="31">
         <f t="shared" si="0"/>
-        <v>87.715076818296566</v>
-      </c>
-      <c r="E27" s="32">
+        <v>87.442423140243491</v>
+      </c>
+      <c r="E27" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.8370912516492375</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>8.2152093857577011</v>
+        <v>8.0591332453072457</v>
       </c>
       <c r="G27" s="33">
         <f t="shared" si="3"/>
-        <v>97.377713795945724</v>
+        <v>98.57473935741541</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="4"/>
-        <v>0.72371379594572716</v>
+        <v>-1.9207393574154139</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M27" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1970</v>
       </c>
       <c r="B28" s="11">
@@ -7355,47 +7341,43 @@
       </c>
       <c r="D28" s="31">
         <f t="shared" si="0"/>
-        <v>85.212497016935686</v>
-      </c>
-      <c r="E28" s="32">
+        <v>85.153842804254595</v>
+      </c>
+      <c r="E28" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.78682261659398378</v>
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>10.477174673235579</v>
+        <v>11.449903505016799</v>
       </c>
       <c r="G28" s="33">
         <f t="shared" si="3"/>
-        <v>105.20632830982872</v>
+        <v>106.85508948454768</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="4"/>
-        <v>4.7583283098287268</v>
+        <v>-6.4070894845476829</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L28" s="21">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M28" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1970</v>
       </c>
       <c r="B29" s="18">
@@ -7406,47 +7388,43 @@
       </c>
       <c r="D29" s="31">
         <f t="shared" si="0"/>
-        <v>90.194487522845165</v>
-      </c>
-      <c r="E29" s="32">
+        <v>89.347221699619638</v>
+      </c>
+      <c r="E29" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.1494451281024078</v>
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>73.733754474596466</v>
+        <v>74.409695509458658</v>
       </c>
       <c r="G29" s="33">
         <f t="shared" si="3"/>
-        <v>158.47575800255836</v>
+        <v>156.94380465153614</v>
       </c>
       <c r="H29" s="21">
         <v>1</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="4"/>
-        <v>-2.7262419974416332</v>
+        <v>4.2581953484638575</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="M29" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1970</v>
       </c>
       <c r="B30" s="11">
@@ -7457,47 +7435,43 @@
       </c>
       <c r="D30" s="31">
         <f t="shared" si="0"/>
-        <v>88.552241074125305</v>
-      </c>
-      <c r="E30" s="32">
+        <v>88.222148462425963</v>
+      </c>
+      <c r="E30" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.83963778198397465</v>
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>-5.9662360313130183</v>
+        <v>-4.1940372363980307</v>
       </c>
       <c r="G30" s="33">
         <f t="shared" si="3"/>
-        <v>90.3819949571877</v>
+        <v>90.577147956620095</v>
       </c>
       <c r="H30" s="21">
         <v>1</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="4"/>
-        <v>3.8979949571877057</v>
+        <v>-4.0931479566201006</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M30" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1971</v>
       </c>
       <c r="B31" s="18">
@@ -7508,47 +7482,43 @@
       </c>
       <c r="D31" s="31">
         <f t="shared" si="0"/>
-        <v>88.516790614242296</v>
-      </c>
-      <c r="E31" s="32">
+        <v>88.750650652636182</v>
+      </c>
+      <c r="E31" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.71518354527447225</v>
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>5.924010417406846</v>
+        <v>7.7479976535334991</v>
       </c>
       <c r="G31" s="33">
         <f t="shared" si="3"/>
-        <v>99.023198968350854</v>
+        <v>97.120919489717195</v>
       </c>
       <c r="H31" s="21">
         <v>1</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="4"/>
-        <v>2.2911989683508551</v>
+        <v>-0.38891948971719614</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="M31" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1971</v>
       </c>
       <c r="B32" s="11">
@@ -7559,47 +7529,43 @@
       </c>
       <c r="D32" s="31">
         <f t="shared" si="0"/>
-        <v>88.571825326764426</v>
-      </c>
-      <c r="E32" s="32">
+        <v>87.972444035568685</v>
+      </c>
+      <c r="E32" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.11782748033768464</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>8.2764608772898622</v>
+        <v>9.9565133426748424</v>
       </c>
       <c r="G32" s="33">
         <f t="shared" si="3"/>
-        <v>101.24971379594572</v>
+        <v>100.91573770292746</v>
       </c>
       <c r="H32" s="21">
         <v>1</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="4"/>
-        <v>2.2007137959457168</v>
+        <v>-1.8667377029274519</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K32" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L32" s="21">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M32" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1971</v>
       </c>
       <c r="B33" s="18">
@@ -7610,47 +7576,43 @@
       </c>
       <c r="D33" s="31">
         <f t="shared" si="0"/>
-        <v>91.242245525403533</v>
-      </c>
-      <c r="E33" s="32">
+        <v>90.071097895614344</v>
+      </c>
+      <c r="E33" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.9101580322208741</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>74.148426164767727</v>
+        <v>76.390521889166635</v>
       </c>
       <c r="G33" s="33">
         <f t="shared" si="3"/>
-        <v>164.56132830982875</v>
+        <v>162.49996702536504</v>
       </c>
       <c r="H33" s="21">
         <v>1</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="4"/>
-        <v>-0.41467169017124661</v>
+        <v>2.4760329746349612</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K33" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L33" s="21">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="M33" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1971</v>
       </c>
       <c r="B34" s="11">
@@ -7661,47 +7623,43 @@
       </c>
       <c r="D34" s="31">
         <f t="shared" si="0"/>
-        <v>94.963236031313016</v>
-      </c>
-      <c r="E34" s="32">
+        <v>92.749080974685469</v>
+      </c>
+      <c r="E34" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>1.6172880509609748</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>-4.5009940338713808</v>
+        <v>-2.4262121895477802</v>
       </c>
       <c r="G34" s="33">
         <f t="shared" si="3"/>
-        <v>87.531758002558362</v>
+        <v>86.787218691437189</v>
       </c>
       <c r="H34" s="21">
         <v>1</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="4"/>
-        <v>-1.4652419974416375</v>
+        <v>2.2097813085628104</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="M34" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1972</v>
       </c>
       <c r="B35" s="18">
@@ -7712,47 +7670,43 @@
       </c>
       <c r="D35" s="31">
         <f t="shared" si="0"/>
-        <v>92.516989582593155</v>
-      </c>
-      <c r="E35" s="32">
+        <v>91.427675682302493</v>
+      </c>
+      <c r="E35" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>0.44181071362339408</v>
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>1.2220154602191386</v>
+        <v>4.809304310189547</v>
       </c>
       <c r="G35" s="33">
         <f t="shared" si="3"/>
-        <v>103.14299495718771</v>
+        <v>102.11436667917995</v>
       </c>
       <c r="H35" s="21">
         <v>1</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="4"/>
-        <v>4.7019949571877078</v>
+        <v>-3.6733666791799493</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="M35" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1972</v>
       </c>
       <c r="B36" s="11">
@@ -7763,47 +7717,43 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" si="0"/>
-        <v>91.568539122710135</v>
-      </c>
-      <c r="E36" s="32">
+        <v>90.284686605045309</v>
+      </c>
+      <c r="E36" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>-0.19210920272883708</v>
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>5.0722619089389962</v>
+        <v>8.371713551794258</v>
       </c>
       <c r="G36" s="33">
         <f t="shared" si="3"/>
-        <v>103.04919896835086</v>
+        <v>101.82599973860073</v>
       </c>
       <c r="H36" s="21">
         <v>1</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="4"/>
-        <v>3.204198968350866</v>
+        <v>-1.9809997386007296</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="M36" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1972</v>
       </c>
       <c r="B37" s="18">
@@ -7814,47 +7764,43 @@
       </c>
       <c r="D37" s="31">
         <f t="shared" si="0"/>
-        <v>100.95057383523226</v>
-      </c>
-      <c r="E37" s="32">
+        <v>96.985297969129988</v>
+      </c>
+      <c r="E37" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.5649790239965697</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>81.274712368822009</v>
+        <v>83.283242455980144</v>
       </c>
       <c r="G37" s="33">
         <f t="shared" si="3"/>
-        <v>167.97271379594571</v>
+        <v>166.48309929148309</v>
       </c>
       <c r="H37" s="21">
         <v>1</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="4"/>
-        <v>-7.1262862040542814</v>
+        <v>8.6159007085169037</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="M37" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1972</v>
       </c>
       <c r="B38" s="11">
@@ -7865,47 +7811,43 @@
       </c>
       <c r="D38" s="31">
         <f t="shared" si="0"/>
-        <v>99.831994033871382</v>
-      </c>
-      <c r="E38" s="32">
+        <v>98.115825150263532</v>
+      </c>
+      <c r="E38" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>1.9911982868513596</v>
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>-7.8753223437001072</v>
+        <v>-3.8606640324107993</v>
       </c>
       <c r="G38" s="33">
         <f t="shared" si="3"/>
-        <v>98.70532830982873</v>
+        <v>97.124064803578776</v>
       </c>
       <c r="H38" s="21">
         <v>1</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="4"/>
-        <v>3.3743283098287264</v>
+        <v>-1.7930648035787726</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L38" s="21">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="M38" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1973</v>
       </c>
       <c r="B39" s="18">
@@ -7916,47 +7858,43 @@
       </c>
       <c r="D39" s="31">
         <f t="shared" si="0"/>
-        <v>106.12498453978085</v>
-      </c>
-      <c r="E39" s="32">
+        <v>102.05156123927134</v>
+      </c>
+      <c r="E39" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.7690134077139374</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>5.2592574576607642</v>
+        <v>6.7538421123459917</v>
       </c>
       <c r="G39" s="33">
         <f t="shared" si="3"/>
-        <v>103.30975800255837</v>
+        <v>104.91632774730444</v>
       </c>
       <c r="H39" s="21">
         <v>1</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="4"/>
-        <v>-4.037241997441626</v>
+        <v>2.4306722526955582</v>
       </c>
       <c r="J39" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="M39" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1973</v>
       </c>
       <c r="B40" s="11">
@@ -7967,47 +7905,43 @@
       </c>
       <c r="D40" s="31">
         <f t="shared" si="0"/>
-        <v>110.749738091061</v>
-      </c>
-      <c r="E40" s="32">
+        <v>106.92434408796166</v>
+      </c>
+      <c r="E40" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>3.6105211841044906</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>7.4412669517513006</v>
+        <v>10.475482992770635</v>
       </c>
       <c r="G40" s="33">
         <f t="shared" si="3"/>
-        <v>113.4529949571877</v>
+        <v>113.19228819877954</v>
       </c>
       <c r="H40" s="21">
         <v>1</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="4"/>
-        <v>-2.3690050428123044</v>
+        <v>2.6297118012204663</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L40" s="21">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="M40" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1973</v>
       </c>
       <c r="B41" s="18">
@@ -8018,47 +7952,43 @@
       </c>
       <c r="D41" s="31">
         <f t="shared" si="0"/>
-        <v>115.68228763117799</v>
-      </c>
-      <c r="E41" s="32">
+        <v>113.0459790896291</v>
+      </c>
+      <c r="E41" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>4.6149667111296715</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>83.951513400471143</v>
+        <v>85.794356273543102</v>
       </c>
       <c r="G41" s="33">
         <f t="shared" si="3"/>
-        <v>194.28019896835087</v>
+        <v>193.8181077280463</v>
       </c>
       <c r="H41" s="21">
         <v>1</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="4"/>
-        <v>-2.67680103164912</v>
+        <v>3.1388922719536936</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L41" s="21">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="M41" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1973</v>
       </c>
       <c r="B42" s="11">
@@ -8069,47 +7999,43 @@
       </c>
       <c r="D42" s="31">
         <f t="shared" si="0"/>
-        <v>112.15232234370011</v>
-      </c>
-      <c r="E42" s="32">
+        <v>110.04232038608039</v>
+      </c>
+      <c r="E42" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>1.5675165452583191</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>-13.661036139645832</v>
+        <v>-11.479289447089178</v>
       </c>
       <c r="G42" s="33">
         <f t="shared" si="3"/>
-        <v>110.06271379594573</v>
+        <v>113.80028176834797</v>
       </c>
       <c r="H42" s="21">
         <v>1</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="4"/>
-        <v>5.7857137959457248</v>
+        <v>-9.5232817683479709</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K42" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L42" s="21">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="M42" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1974</v>
       </c>
       <c r="B43" s="18">
@@ -8120,47 +8046,43 @@
       </c>
       <c r="D43" s="31">
         <f t="shared" si="0"/>
-        <v>124.68174254233924</v>
-      </c>
-      <c r="E43" s="32">
+        <v>120.87169369639096</v>
+      </c>
+      <c r="E43" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>5.2722592512792206</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>15.532929147832048</v>
+        <v>16.015698877398233</v>
       </c>
       <c r="G43" s="33">
         <f t="shared" si="3"/>
-        <v>119.66732830982872</v>
+        <v>118.3636790436847</v>
       </c>
       <c r="H43" s="21">
         <v>1</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="4"/>
-        <v>-10.273671690171284</v>
+        <v>11.577320956315305</v>
       </c>
       <c r="J43" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K43" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L43" s="21">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="M43" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1974</v>
       </c>
       <c r="B44" s="11">
@@ -8171,47 +8093,43 @@
       </c>
       <c r="D44" s="31">
         <f t="shared" si="0"/>
-        <v>126.17473304824871</v>
-      </c>
-      <c r="E44" s="32">
+        <v>123.74120419531754</v>
+      </c>
+      <c r="E44" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>4.3111597503381613</v>
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>6.6785089491929295</v>
+        <v>8.0727342404179918</v>
       </c>
       <c r="G44" s="33">
         <f t="shared" si="3"/>
-        <v>134.37875800255838</v>
+        <v>136.61943594044081</v>
       </c>
       <c r="H44" s="21">
         <v>1</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="4"/>
-        <v>0.76275800255837112</v>
+        <v>-3.0034359404407951</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K44" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L44" s="21">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="M44" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1974</v>
       </c>
       <c r="B45" s="43">
@@ -8222,47 +8140,43 @@
       </c>
       <c r="D45" s="31">
         <f t="shared" si="0"/>
-        <v>144.26548659952886</v>
-      </c>
-      <c r="E45" s="32">
+        <v>139.54858777029665</v>
+      </c>
+      <c r="E45" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>8.9096492801945431</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>99.786518443283455</v>
+        <v>97.290580098184066</v>
       </c>
       <c r="G45" s="33">
         <f t="shared" si="3"/>
-        <v>212.38199495718771</v>
+        <v>213.8467202191988</v>
       </c>
       <c r="H45" s="21">
         <v>1</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="4"/>
-        <v>-15.835005042812298</v>
+        <v>14.370279780801212</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="M45" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1974</v>
       </c>
       <c r="B46" s="43">
@@ -8273,47 +8187,43 @@
       </c>
       <c r="D46" s="31">
         <f t="shared" si="0"/>
-        <v>138.04803613964583</v>
-      </c>
-      <c r="E46" s="32">
+        <v>138.38467896776959</v>
+      </c>
+      <c r="E46" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>4.8802260471059018</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>-22.134235107996702</v>
+        <v>-21.552847529810791</v>
       </c>
       <c r="G46" s="33">
         <f t="shared" si="3"/>
-        <v>132.86019896835089</v>
+        <v>136.97894760340202</v>
       </c>
       <c r="H46" s="21">
         <v>1</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="4"/>
-        <v>8.4731989683508857</v>
+        <v>-12.591947603402019</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K46" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L46" s="21">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="M46" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1975</v>
       </c>
       <c r="B47" s="43">
@@ -8324,47 +8234,43 @@
       </c>
       <c r="D47" s="31">
         <f t="shared" si="0"/>
-        <v>123.25707085216794</v>
-      </c>
-      <c r="E47" s="32">
+        <v>126.87242190105651</v>
+      </c>
+      <c r="E47" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>-1.6767671984216896</v>
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>-1.5137846481136861</v>
+        <v>-0.37678423642075254</v>
       </c>
       <c r="G47" s="33">
         <f t="shared" si="3"/>
-        <v>155.83671379594574</v>
+        <v>159.28060389227372</v>
       </c>
       <c r="H47" s="21">
         <v>1</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="4"/>
-        <v>17.046713795945749</v>
+        <v>-20.490603892273725</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K47" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L47" s="21">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="M47" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1975</v>
       </c>
       <c r="B48" s="43">
@@ -8375,47 +8281,43 @@
       </c>
       <c r="D48" s="31">
         <f t="shared" si="0"/>
-        <v>138.4434910508071</v>
-      </c>
-      <c r="E48" s="32">
+        <v>134.67854354819258</v>
+      </c>
+      <c r="E48" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.1163883398014134</v>
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>19.609180639364226</v>
+        <v>17.555623085975753</v>
       </c>
       <c r="G48" s="33">
         <f t="shared" si="3"/>
-        <v>132.19132830982872</v>
+        <v>133.26838894305283</v>
       </c>
       <c r="H48" s="21">
         <v>1</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="4"/>
-        <v>-12.930671690171295</v>
+        <v>11.853611056947187</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L48" s="21">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="M48" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1975</v>
       </c>
       <c r="B49" s="43">
@@ -8426,47 +8328,43 @@
       </c>
       <c r="D49" s="31">
         <f t="shared" si="0"/>
-        <v>133.64248155671655</v>
-      </c>
-      <c r="E49" s="32">
+        <v>136.26972229905155</v>
+      </c>
+      <c r="E49" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>1.9063045042244371</v>
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>92.729760440725059</v>
+        <v>96.76537050924162</v>
       </c>
       <c r="G49" s="33">
         <f t="shared" si="3"/>
-        <v>240.48575800255841</v>
+        <v>234.08551198617806</v>
       </c>
       <c r="H49" s="21">
         <v>1</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="4"/>
-        <v>7.0567580025584107</v>
+        <v>-0.65651198617806017</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L49" s="21">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="M49" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1975</v>
       </c>
       <c r="B50" s="43">
@@ -8477,47 +8375,43 @@
       </c>
       <c r="D50" s="31">
         <f t="shared" si="0"/>
-        <v>152.38823510799671</v>
-      </c>
-      <c r="E50" s="32">
+        <v>149.08068338450383</v>
+      </c>
+      <c r="E50" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>6.2681671367155731</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>-5.644230065184404</v>
+        <v>-10.648190948582956</v>
       </c>
       <c r="G50" s="33">
         <f t="shared" si="3"/>
-        <v>113.76399495718771</v>
+        <v>116.6231792734652</v>
       </c>
       <c r="H50" s="21">
         <v>1</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="4"/>
-        <v>-16.490005042812285</v>
+        <v>13.630820726534793</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L50" s="21">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="M50" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1976</v>
       </c>
       <c r="B51" s="43">
@@ -8528,47 +8422,43 @@
       </c>
       <c r="D51" s="31">
         <f t="shared" si="0"/>
-        <v>151.5147846481137</v>
-      </c>
-      <c r="E51" s="32">
+        <v>151.37199749338049</v>
+      </c>
+      <c r="E51" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>4.6774259255800086</v>
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>-4.6429836164645497</v>
+        <v>-4.3536372642596683</v>
       </c>
       <c r="G51" s="33">
         <f t="shared" si="3"/>
-        <v>153.13019896835087</v>
+        <v>154.97206628479864</v>
       </c>
       <c r="H51" s="21">
         <v>1</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="4"/>
-        <v>3.1291989683508632</v>
+        <v>-4.9710662847986384</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K51" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L51" s="21">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M51" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1976</v>
       </c>
       <c r="B52" s="43">
@@ -8579,47 +8469,43 @@
       </c>
       <c r="D52" s="31">
         <f t="shared" si="0"/>
-        <v>130.51681936063579</v>
-      </c>
-      <c r="E52" s="32">
+        <v>137.26618621501149</v>
+      </c>
+      <c r="E52" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>-2.8358689559995969</v>
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>-3.6445331565815464</v>
+        <v>-1.2276141179732463</v>
       </c>
       <c r="G52" s="33">
         <f t="shared" si="3"/>
-        <v>173.3797137959458</v>
+        <v>173.60504650493624</v>
       </c>
       <c r="H52" s="21">
         <v>1</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="4"/>
-        <v>23.253713795945799</v>
+        <v>-23.479046504936235</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L52" s="21">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="M52" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1976</v>
       </c>
       <c r="B53" s="43">
@@ -8630,47 +8516,43 @@
       </c>
       <c r="D53" s="31">
         <f t="shared" si="0"/>
-        <v>164.74923955927494</v>
-      </c>
-      <c r="E53" s="32">
+        <v>155.45696704440908</v>
+      </c>
+      <c r="E53" s="65">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>5.5747909581592809</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>124.70643213089635</v>
+        <v>117.7920202946388</v>
       </c>
       <c r="G53" s="33">
         <f t="shared" si="3"/>
-        <v>225.50232830982873</v>
+        <v>231.19568776825352</v>
       </c>
       <c r="H53" s="21">
         <v>1</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="4"/>
-        <v>-31.976671690171258</v>
+        <v>26.283312231746464</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="M53" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1976</v>
       </c>
       <c r="B54" s="44">
@@ -8681,47 +8563,43 @@
       </c>
       <c r="D54" s="46">
         <f t="shared" si="0"/>
-        <v>144.86623006518442</v>
-      </c>
-      <c r="E54" s="47">
+        <v>152.10250435938005</v>
+      </c>
+      <c r="E54" s="66">
         <f t="shared" si="1"/>
-        <v>2.2557485084678475</v>
+        <v>2.0030895008839549</v>
       </c>
       <c r="F54" s="47">
         <f t="shared" si="2"/>
-        <v>-27.782988067742778</v>
+        <v>-19.577444591771275</v>
       </c>
       <c r="G54" s="33">
         <f t="shared" si="3"/>
-        <v>161.36075800255838</v>
+        <v>150.38356705398539</v>
       </c>
       <c r="H54" s="45">
         <v>1</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="4"/>
-        <v>22.138758002558376</v>
+        <v>-11.16156705398538</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L54" s="21">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="M54" s="21">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1977</v>
       </c>
       <c r="B55" s="48">
@@ -8729,14 +8607,14 @@
       </c>
       <c r="C55" s="49">
         <f>G54</f>
-        <v>161.36075800255838</v>
+        <v>150.38356705398539</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="51"/>
       <c r="F55" s="51"/>
       <c r="G55" s="52">
         <f>$D$54+H55*($E$54)+F51</f>
-        <v>142.47899495718772</v>
+        <v>149.75195659600433</v>
       </c>
       <c r="H55" s="48">
         <v>1</v>
@@ -8747,24 +8625,20 @@
         <v>0</v>
       </c>
       <c r="K55" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L55" s="48">
         <f>$B$54+H55-K55</f>
         <v>34</v>
       </c>
-      <c r="M55" s="54">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="N55" s="59" t="s">
+      <c r="M55" s="61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1977</v>
       </c>
       <c r="B56" s="48">
@@ -8772,14 +8646,14 @@
       </c>
       <c r="C56" s="49">
         <f>G55</f>
-        <v>142.47899495718772</v>
+        <v>149.75195659600433</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="51"/>
       <c r="F56" s="51"/>
       <c r="G56" s="52">
         <f>$D$54+H56*($E$54)+F52</f>
-        <v>145.73319392553856</v>
+        <v>154.88106924317472</v>
       </c>
       <c r="H56" s="48">
         <v>2</v>
@@ -8790,22 +8664,18 @@
         <v>0</v>
       </c>
       <c r="K56" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L56" s="48">
         <f>$B$54+H56-K56</f>
         <v>35</v>
       </c>
-      <c r="M56" s="54">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="N56" s="60"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M56" s="62"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1977</v>
       </c>
       <c r="B57" s="48">
@@ -8813,14 +8683,14 @@
       </c>
       <c r="C57" s="49">
         <f>G56</f>
-        <v>145.73319392553856</v>
+        <v>154.88106924317472</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="51"/>
       <c r="F57" s="51"/>
       <c r="G57" s="52">
         <f>$D$54+H57*($E$54)+F53</f>
-        <v>276.33990772148434</v>
+        <v>275.90379315667076</v>
       </c>
       <c r="H57" s="48">
         <v>3</v>
@@ -8831,37 +8701,33 @@
         <v>0</v>
       </c>
       <c r="K57" s="48">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L57" s="48">
-        <f t="shared" ref="L57:L58" si="10">$B$54+H57-K57</f>
-        <v>36</v>
-      </c>
-      <c r="M57" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N57" s="60"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L57" s="48">
+        <f t="shared" ref="L57:L58" si="9">$B$54+H57-K57</f>
+        <v>36</v>
+      </c>
+      <c r="M57" s="62"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1977</v>
       </c>
       <c r="B58" s="48">
         <v>41</v>
       </c>
       <c r="C58" s="49">
-        <f t="shared" ref="C58:C59" si="11">G57</f>
-        <v>276.33990772148434</v>
+        <f t="shared" ref="C58:C59" si="10">G57</f>
+        <v>275.90379315667076</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="51"/>
       <c r="F58" s="51"/>
       <c r="G58" s="52">
         <f>$D$54+H58*($E$54)+F54</f>
-        <v>126.10623603131303</v>
+        <v>140.53741777114459</v>
       </c>
       <c r="H58" s="48">
         <v>4</v>
@@ -8872,37 +8738,33 @@
         <v>0</v>
       </c>
       <c r="K58" s="48">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L58" s="48">
-        <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="M58" s="54">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N58" s="60"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L58" s="48">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="M58" s="62"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1978</v>
       </c>
       <c r="B59" s="48">
         <v>42</v>
       </c>
       <c r="C59" s="49">
-        <f t="shared" si="11"/>
-        <v>126.10623603131303</v>
+        <f t="shared" si="10"/>
+        <v>140.53741777114459</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="51"/>
       <c r="F59" s="51"/>
       <c r="G59" s="52">
         <f>$D$54+H59*($E$54)+F51</f>
-        <v>151.50198899105911</v>
+        <v>157.76431459954014</v>
       </c>
       <c r="H59" s="48">
         <v>5</v>
@@ -8913,22 +8775,18 @@
         <v>1</v>
       </c>
       <c r="K59" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L59" s="48">
         <f>$B$54+H59-K59</f>
         <v>34</v>
       </c>
-      <c r="M59" s="54">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="N59" s="60"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M59" s="62"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1978</v>
       </c>
       <c r="B60" s="48">
@@ -8936,14 +8794,14 @@
       </c>
       <c r="C60" s="49">
         <f>G59</f>
-        <v>151.50198899105911</v>
+        <v>157.76431459954014</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="51"/>
       <c r="F60" s="51"/>
       <c r="G60" s="52">
-        <f t="shared" ref="G60:G62" si="12">$D$54+H60*($E$54)+F52</f>
-        <v>154.75618795940994</v>
+        <f>$D$54+H60*($E$54)+F52</f>
+        <v>162.89342724671053</v>
       </c>
       <c r="H60" s="48">
         <v>6</v>
@@ -8954,22 +8812,18 @@
         <v>1</v>
       </c>
       <c r="K60" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L60" s="48">
         <f>$B$54+H60-K60</f>
         <v>35</v>
       </c>
-      <c r="M60" s="54">
-        <f t="shared" ref="M60:M63" si="13">B60-L60</f>
-        <v>8</v>
-      </c>
-      <c r="N60" s="60"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M60" s="62"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1978</v>
       </c>
       <c r="B61" s="48">
@@ -8977,14 +8831,14 @@
       </c>
       <c r="C61" s="49">
         <f>G60</f>
-        <v>154.75618795940994</v>
+        <v>162.89342724671053</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="51"/>
       <c r="F61" s="51"/>
       <c r="G61" s="52">
-        <f t="shared" si="12"/>
-        <v>285.36290175535572</v>
+        <f>$D$54+H61*($E$54)+F53</f>
+        <v>283.91615116020654</v>
       </c>
       <c r="H61" s="48">
         <v>7</v>
@@ -8995,22 +8849,18 @@
         <v>1</v>
       </c>
       <c r="K61" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L61" s="48">
         <f>$B$54+H61-K61</f>
         <v>36</v>
       </c>
-      <c r="M61" s="54">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="N61" s="60"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M61" s="62"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1978</v>
       </c>
       <c r="B62" s="48">
@@ -9018,14 +8868,14 @@
       </c>
       <c r="C62" s="49">
         <f>G61</f>
-        <v>285.36290175535572</v>
+        <v>283.91615116020654</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="51"/>
       <c r="F62" s="51"/>
       <c r="G62" s="52">
-        <f t="shared" si="12"/>
-        <v>135.1292300651844</v>
+        <f t="shared" ref="G60:G62" si="11">$D$54+H62*($E$54)+F54</f>
+        <v>148.54977577468043</v>
       </c>
       <c r="H62" s="48">
         <v>8</v>
@@ -9036,22 +8886,18 @@
         <v>1</v>
       </c>
       <c r="K62" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L62" s="48">
         <f>$B$54+H62-K62</f>
         <v>37</v>
       </c>
-      <c r="M62" s="54">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="N62" s="60"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="62"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1979</v>
       </c>
       <c r="B63" s="48">
@@ -9059,14 +8905,14 @@
       </c>
       <c r="C63" s="49">
         <f>G62</f>
-        <v>135.1292300651844</v>
+        <v>148.54977577468043</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="51"/>
       <c r="F63" s="51"/>
       <c r="G63" s="52">
         <f>$D$54+H63*($E$54)+F51</f>
-        <v>160.52498302493049</v>
+        <v>165.77667260307598</v>
       </c>
       <c r="H63" s="48">
         <v>9</v>
@@ -9084,11 +8930,7 @@
         <f>$B$54+H63-K63</f>
         <v>34</v>
       </c>
-      <c r="M63" s="54">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="N63" s="61"/>
+      <c r="M63" s="63"/>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="7">
@@ -9102,10 +8944,32 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="N55:N63"/>
+    <mergeCell ref="M55:M63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F70DD9-CE1E-4893-BA9C-9A86816C67E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e" cm="1">
+        <f t="array" ref="A1">aleatorio.</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ses_holt_hw.xlsx
+++ b/data/ses_holt_hw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\MUSE_JCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAF1BB-A9E0-4CFD-8859-ABBEB5C9F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C80925-30C6-4036-8745-10E15A20D6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
+    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5CC513FC-EFB3-4569-9109-644D88F7E97D}"/>
   </bookViews>
   <sheets>
     <sheet name="SES" sheetId="3" r:id="rId1"/>
@@ -141,28 +141,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -701,6 +679,15 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,15 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1068,16 +1046,16 @@
                   <c:v>56688.250758078517</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17006.475227423558</c:v>
+                  <c:v>56688.250758078517</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5101.9425682270685</c:v>
+                  <c:v>56688.250758078517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1530.5827704681208</c:v>
+                  <c:v>56688.250758078517</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.17483114043631</c:v>
+                  <c:v>56688.250758078517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,15 +4037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>152814</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:rowOff>239160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>152814</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>29610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4139,9 +4117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4179,7 +4157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4285,7 +4263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4427,7 +4405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4437,8 +4415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CC3305-0F10-4BFA-9234-5FFB9C915C1C}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,10 +4430,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="58"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5169,7 +5147,7 @@
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="20">
-        <f t="shared" si="0"/>
+        <f>$H$1*$C$34 +(1-$H$1)*$D$34</f>
         <v>56688.250758078517</v>
       </c>
       <c r="E35" s="21">
@@ -5187,8 +5165,8 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="20">
-        <f t="shared" si="0"/>
-        <v>17006.475227423558</v>
+        <f t="shared" ref="D36:D39" si="2">$H$1*$C$34 +(1-$H$1)*$D$34</f>
+        <v>56688.250758078517</v>
       </c>
       <c r="E36" s="21">
         <v>2</v>
@@ -5205,8 +5183,8 @@
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20">
-        <f t="shared" si="0"/>
-        <v>5101.9425682270685</v>
+        <f t="shared" si="2"/>
+        <v>56688.250758078517</v>
       </c>
       <c r="E37" s="21">
         <v>3</v>
@@ -5223,8 +5201,8 @@
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20">
-        <f t="shared" si="0"/>
-        <v>1530.5827704681208</v>
+        <f t="shared" si="2"/>
+        <v>56688.250758078517</v>
       </c>
       <c r="E38" s="21">
         <v>4</v>
@@ -5241,8 +5219,8 @@
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="20">
-        <f t="shared" si="0"/>
-        <v>459.17483114043631</v>
+        <f t="shared" si="2"/>
+        <v>56688.250758078517</v>
       </c>
       <c r="E39" s="21">
         <v>5</v>
@@ -5264,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C92A2A-80C6-4F2B-94A2-DE09EF091EAF}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,10 +5258,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5292,10 +5270,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
@@ -6483,7 +6461,7 @@
       </c>
       <c r="H40" s="16"/>
       <c r="J40" t="e">
-        <f t="shared" si="5"/>
+        <f>I40/C40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6593,8 +6571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7883B9A0-6EC6-4601-BFF4-342B674DDDB4}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E21"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,10 +6590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
@@ -6624,10 +6602,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
@@ -6636,10 +6614,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="37" t="s">
         <v>24</v>
       </c>
@@ -6658,10 +6636,10 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
@@ -6849,7 +6827,7 @@
       <c r="D17" s="27">
         <v>66.032579801360882</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="58">
         <v>2.2557485084678475</v>
       </c>
       <c r="F17" s="41">
@@ -6876,7 +6854,7 @@
         <f>$I$1*(C18-F14) +(1-$I$1)*(D17+E17)</f>
         <v>66.851265661965741</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="59">
         <f>$I$2*(D18-D17)+(1-$I$2)*E17</f>
         <v>1.6809234493226519</v>
       </c>
@@ -6922,7 +6900,7 @@
         <f t="shared" ref="D19:D54" si="0">$I$1*(C19-F15) +(1-$I$1)*(D18+E18)</f>
         <v>62.437630226985249</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="59">
         <f t="shared" ref="E19:E54" si="1">$I$2*(D19-D18)+(1-$I$2)*E18</f>
         <v>-0.75690010439860567</v>
       </c>
@@ -6968,7 +6946,7 @@
         <f t="shared" si="0"/>
         <v>62.719941270269025</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="59">
         <f t="shared" si="1"/>
         <v>-0.34121564532565279</v>
       </c>
@@ -7014,7 +6992,7 @@
         <f>$I$1*(C21-F17) +(1-$I$1)*(D20+E20)</f>
         <v>68.403180002833963</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="59">
         <f t="shared" si="1"/>
         <v>2.0685661058305835</v>
       </c>
@@ -7061,7 +7039,7 @@
         <f t="shared" si="0"/>
         <v>72.805599340023292</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="59">
         <f t="shared" si="1"/>
         <v>3.0021073983740818</v>
       </c>
@@ -7108,7 +7086,7 @@
         <f t="shared" si="0"/>
         <v>73.965980859849566</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="59">
         <f t="shared" si="1"/>
         <v>2.2654170469549584</v>
       </c>
@@ -7155,7 +7133,7 @@
         <f t="shared" si="0"/>
         <v>75.947505908966704</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="59">
         <f t="shared" si="1"/>
         <v>2.1518602478198305</v>
       </c>
@@ -7202,7 +7180,7 @@
         <f t="shared" si="0"/>
         <v>83.165344606890116</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="59">
         <f t="shared" si="1"/>
         <v>4.1782516278612629</v>
       </c>
@@ -7249,7 +7227,7 @@
         <f t="shared" si="0"/>
         <v>85.527286780153659</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="59">
         <f t="shared" si="1"/>
         <v>3.451727846022175</v>
       </c>
@@ -7296,7 +7274,7 @@
         <f t="shared" si="0"/>
         <v>87.442423140243491</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="59">
         <f t="shared" si="1"/>
         <v>2.8370912516492375</v>
       </c>
@@ -7343,7 +7321,7 @@
         <f t="shared" si="0"/>
         <v>85.153842804254595</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="59">
         <f t="shared" si="1"/>
         <v>0.78682261659398378</v>
       </c>
@@ -7390,7 +7368,7 @@
         <f t="shared" si="0"/>
         <v>89.347221699619638</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="59">
         <f t="shared" si="1"/>
         <v>2.1494451281024078</v>
       </c>
@@ -7437,7 +7415,7 @@
         <f t="shared" si="0"/>
         <v>88.222148462425963</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="59">
         <f t="shared" si="1"/>
         <v>0.83963778198397465</v>
       </c>
@@ -7484,7 +7462,7 @@
         <f t="shared" si="0"/>
         <v>88.750650652636182</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="59">
         <f t="shared" si="1"/>
         <v>0.71518354527447225</v>
       </c>
@@ -7493,7 +7471,7 @@
         <v>7.7479976535334991</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="3"/>
+        <f>D30+H31*(E30)+F27</f>
         <v>97.120919489717195</v>
       </c>
       <c r="H31" s="21">
@@ -7512,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="6"/>
+        <f>B30+H31-K31</f>
         <v>10</v>
       </c>
     </row>
@@ -7531,7 +7509,7 @@
         <f t="shared" si="0"/>
         <v>87.972444035568685</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="59">
         <f t="shared" si="1"/>
         <v>0.11782748033768464</v>
       </c>
@@ -7578,7 +7556,7 @@
         <f t="shared" si="0"/>
         <v>90.071097895614344</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="59">
         <f t="shared" si="1"/>
         <v>0.9101580322208741</v>
       </c>
@@ -7625,7 +7603,7 @@
         <f t="shared" si="0"/>
         <v>92.749080974685469</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="59">
         <f t="shared" si="1"/>
         <v>1.6172880509609748</v>
       </c>
@@ -7672,7 +7650,7 @@
         <f t="shared" si="0"/>
         <v>91.427675682302493</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="59">
         <f t="shared" si="1"/>
         <v>0.44181071362339408</v>
       </c>
@@ -7719,7 +7697,7 @@
         <f t="shared" si="0"/>
         <v>90.284686605045309</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="59">
         <f t="shared" si="1"/>
         <v>-0.19210920272883708</v>
       </c>
@@ -7766,7 +7744,7 @@
         <f t="shared" si="0"/>
         <v>96.985297969129988</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="59">
         <f t="shared" si="1"/>
         <v>2.5649790239965697</v>
       </c>
@@ -7813,7 +7791,7 @@
         <f t="shared" si="0"/>
         <v>98.115825150263532</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="59">
         <f t="shared" si="1"/>
         <v>1.9911982868513596</v>
       </c>
@@ -7860,7 +7838,7 @@
         <f t="shared" si="0"/>
         <v>102.05156123927134</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="59">
         <f t="shared" si="1"/>
         <v>2.7690134077139374</v>
       </c>
@@ -7907,7 +7885,7 @@
         <f t="shared" si="0"/>
         <v>106.92434408796166</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="59">
         <f t="shared" si="1"/>
         <v>3.6105211841044906</v>
       </c>
@@ -7954,7 +7932,7 @@
         <f t="shared" si="0"/>
         <v>113.0459790896291</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="59">
         <f t="shared" si="1"/>
         <v>4.6149667111296715</v>
       </c>
@@ -8001,7 +7979,7 @@
         <f t="shared" si="0"/>
         <v>110.04232038608039</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="59">
         <f t="shared" si="1"/>
         <v>1.5675165452583191</v>
       </c>
@@ -8048,7 +8026,7 @@
         <f t="shared" si="0"/>
         <v>120.87169369639096</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="59">
         <f t="shared" si="1"/>
         <v>5.2722592512792206</v>
       </c>
@@ -8095,7 +8073,7 @@
         <f t="shared" si="0"/>
         <v>123.74120419531754</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="59">
         <f t="shared" si="1"/>
         <v>4.3111597503381613</v>
       </c>
@@ -8142,7 +8120,7 @@
         <f t="shared" si="0"/>
         <v>139.54858777029665</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="59">
         <f t="shared" si="1"/>
         <v>8.9096492801945431</v>
       </c>
@@ -8189,7 +8167,7 @@
         <f t="shared" si="0"/>
         <v>138.38467896776959</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="59">
         <f t="shared" si="1"/>
         <v>4.8802260471059018</v>
       </c>
@@ -8236,7 +8214,7 @@
         <f t="shared" si="0"/>
         <v>126.87242190105651</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="59">
         <f t="shared" si="1"/>
         <v>-1.6767671984216896</v>
       </c>
@@ -8283,7 +8261,7 @@
         <f t="shared" si="0"/>
         <v>134.67854354819258</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="59">
         <f t="shared" si="1"/>
         <v>2.1163883398014134</v>
       </c>
@@ -8330,7 +8308,7 @@
         <f t="shared" si="0"/>
         <v>136.26972229905155</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="59">
         <f t="shared" si="1"/>
         <v>1.9063045042244371</v>
       </c>
@@ -8377,7 +8355,7 @@
         <f t="shared" si="0"/>
         <v>149.08068338450383</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="59">
         <f t="shared" si="1"/>
         <v>6.2681671367155731</v>
       </c>
@@ -8424,7 +8402,7 @@
         <f t="shared" si="0"/>
         <v>151.37199749338049</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="59">
         <f t="shared" si="1"/>
         <v>4.6774259255800086</v>
       </c>
@@ -8471,7 +8449,7 @@
         <f t="shared" si="0"/>
         <v>137.26618621501149</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="59">
         <f t="shared" si="1"/>
         <v>-2.8358689559995969</v>
       </c>
@@ -8518,7 +8496,7 @@
         <f t="shared" si="0"/>
         <v>155.45696704440908</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="59">
         <f t="shared" si="1"/>
         <v>5.5747909581592809</v>
       </c>
@@ -8565,7 +8543,7 @@
         <f t="shared" si="0"/>
         <v>152.10250435938005</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E54" s="60">
         <f t="shared" si="1"/>
         <v>2.0030895008839549</v>
       </c>
@@ -8581,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="4"/>
+        <f>C54-G54</f>
         <v>-11.16156705398538</v>
       </c>
       <c r="J54" s="21">
@@ -8632,7 +8610,7 @@
         <f>$B$54+H55-K55</f>
         <v>34</v>
       </c>
-      <c r="M55" s="61" t="s">
+      <c r="M55" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8671,7 +8649,7 @@
         <f>$B$54+H56-K56</f>
         <v>35</v>
       </c>
-      <c r="M56" s="62"/>
+      <c r="M56" s="65"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
@@ -8708,7 +8686,7 @@
         <f t="shared" ref="L57:L58" si="9">$B$54+H57-K57</f>
         <v>36</v>
       </c>
-      <c r="M57" s="62"/>
+      <c r="M57" s="65"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
@@ -8745,7 +8723,7 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="M58" s="62"/>
+      <c r="M58" s="65"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
@@ -8782,7 +8760,7 @@
         <f>$B$54+H59-K59</f>
         <v>34</v>
       </c>
-      <c r="M59" s="62"/>
+      <c r="M59" s="65"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
@@ -8819,7 +8797,7 @@
         <f>$B$54+H60-K60</f>
         <v>35</v>
       </c>
-      <c r="M60" s="62"/>
+      <c r="M60" s="65"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
@@ -8856,7 +8834,7 @@
         <f>$B$54+H61-K61</f>
         <v>36</v>
       </c>
-      <c r="M61" s="62"/>
+      <c r="M61" s="65"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
@@ -8874,7 +8852,7 @@
       <c r="E62" s="51"/>
       <c r="F62" s="51"/>
       <c r="G62" s="52">
-        <f t="shared" ref="G60:G62" si="11">$D$54+H62*($E$54)+F54</f>
+        <f t="shared" ref="G62" si="11">$D$54+H62*($E$54)+F54</f>
         <v>148.54977577468043</v>
       </c>
       <c r="H62" s="48">
@@ -8893,7 +8871,7 @@
         <f>$B$54+H62-K62</f>
         <v>37</v>
       </c>
-      <c r="M62" s="62"/>
+      <c r="M62" s="65"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
@@ -8930,7 +8908,7 @@
         <f>$B$54+H63-K63</f>
         <v>34</v>
       </c>
-      <c r="M63" s="63"/>
+      <c r="M63" s="66"/>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="7">
@@ -8956,20 +8934,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F70DD9-CE1E-4893-BA9C-9A86816C67E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e" cm="1">
-        <f t="array" ref="A1">aleatorio.</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>